--- a/doc/ТаблПерехКонАвт_версии.xlsx
+++ b/doc/ТаблПерехКонАвт_версии.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++_proj\PolynomeProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40CDD1-FE43-4DCE-B554-58DD57A451CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56871C6A-C4AB-4068-A3BF-6A299B64D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Версия 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Версия 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Версия 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Версия 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Версия 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="27">
   <si>
     <t>q1</t>
   </si>
@@ -95,13 +96,33 @@
   </si>
   <si>
     <t>куда</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>, или .</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +132,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,10 +176,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,8 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% — акцент4" xfId="2" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -858,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7BDCB1-F398-4AE7-9192-A6E3D89693E5}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,4 +1318,510 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29FEE8-0BFC-4651-B478-4DEA98259A0C}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="5">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>3</v>
+      </c>
+      <c r="R1" s="5">
+        <v>4</v>
+      </c>
+      <c r="S1" s="5">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1" s="5">
+        <v>7</v>
+      </c>
+      <c r="V1" s="5">
+        <v>8</v>
+      </c>
+      <c r="W1" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>7</v>
+      </c>
+      <c r="T4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ТаблПерехКонАвт_версии.xlsx
+++ b/doc/ТаблПерехКонАвт_версии.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++_proj\PolynomeProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40CDD1-FE43-4DCE-B554-58DD57A451CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DACCE-A533-4324-90E3-5280FD32894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Версия 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Версия 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Версия 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Версия 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Версия 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="27">
   <si>
     <t>q1</t>
   </si>
@@ -95,13 +96,33 @@
   </si>
   <si>
     <t>куда</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>, или .</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +132,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,10 +176,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,8 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% — акцент4" xfId="2" builtinId="42"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -858,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7BDCB1-F398-4AE7-9192-A6E3D89693E5}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,4 +1318,510 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29FEE8-0BFC-4651-B478-4DEA98259A0C}">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="5">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>3</v>
+      </c>
+      <c r="R1" s="5">
+        <v>4</v>
+      </c>
+      <c r="S1" s="5">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1" s="5">
+        <v>7</v>
+      </c>
+      <c r="V1" s="5">
+        <v>8</v>
+      </c>
+      <c r="W1" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>7</v>
+      </c>
+      <c r="T4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ТаблПерехКонАвт_версии.xlsx
+++ b/doc/ТаблПерехКонАвт_версии.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++_proj\PolynomeProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DACCE-A533-4324-90E3-5280FD32894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3B403A-5F74-4CBB-9487-2EDB6EB91FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5217BE9C-DBB8-4196-9809-F175477F91C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Версия 0" sheetId="1" r:id="rId1"/>
     <sheet name="Версия 1" sheetId="2" r:id="rId2"/>
     <sheet name="Версия 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Версия 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="28">
   <si>
     <t>q1</t>
   </si>
@@ -108,6 +109,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29FEE8-0BFC-4651-B478-4DEA98259A0C}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,4 +1828,527 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D149D324-77D8-4956-927B-45933A9A1038}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="5">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>3</v>
+      </c>
+      <c r="R1" s="5">
+        <v>4</v>
+      </c>
+      <c r="S1" s="5">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5">
+        <v>6</v>
+      </c>
+      <c r="U1" s="5">
+        <v>7</v>
+      </c>
+      <c r="V1" s="5">
+        <v>8</v>
+      </c>
+      <c r="W1" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>7</v>
+      </c>
+      <c r="T4" s="2">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>